--- a/results/mp/tinybert/home-spam/confidence/210/stop-words-masking-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/210/stop-words-masking-0.35/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="86">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,15 +40,21 @@
     <t>name</t>
   </si>
   <si>
+    <t>disappointed</t>
+  </si>
+  <si>
     <t>returned</t>
   </si>
   <si>
-    <t>disappointed</t>
+    <t>broke</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
     <t>loves</t>
   </si>
   <si>
@@ -76,124 +82,130 @@
     <t>perfect</t>
   </si>
   <si>
+    <t>pleased</t>
+  </si>
+  <si>
+    <t>salad</t>
+  </si>
+  <si>
     <t>loved</t>
   </si>
   <si>
-    <t>pleased</t>
-  </si>
-  <si>
-    <t>salad</t>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>cakes</t>
   </si>
   <si>
     <t>husband</t>
   </si>
   <si>
-    <t>kids</t>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>happy</t>
   </si>
   <si>
     <t>family</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>happy</t>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>bread</t>
   </si>
   <si>
     <t>daughter</t>
   </si>
   <si>
-    <t>rice</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>cakes</t>
-  </si>
-  <si>
-    <t>potatoes</t>
+    <t>pie</t>
+  </si>
+  <si>
+    <t>cheese</t>
   </si>
   <si>
     <t>sturdy</t>
   </si>
   <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>pie</t>
-  </si>
-  <si>
-    <t>bread</t>
+    <t>comfortable</t>
+  </si>
+  <si>
+    <t>ever</t>
   </si>
   <si>
     <t>gift</t>
   </si>
   <si>
-    <t>ever</t>
-  </si>
-  <si>
     <t>ze</t>
   </si>
   <si>
+    <t>popcorn</t>
+  </si>
+  <si>
     <t>nice</t>
   </si>
   <si>
     <t>years</t>
   </si>
   <si>
+    <t>cook</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>cooking</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>always</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>kitchen</t>
+  </si>
+  <si>
     <t>tea</t>
   </si>
   <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>cooking</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>cook</t>
-  </si>
-  <si>
-    <t>kitchen</t>
-  </si>
-  <si>
     <t>keeps</t>
   </si>
   <si>
-    <t>highly</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
+    <t>new</t>
+  </si>
+  <si>
     <t>exactly</t>
   </si>
   <si>
-    <t>new</t>
+    <t>many</t>
   </si>
   <si>
     <t>works</t>
@@ -202,57 +214,51 @@
     <t>well</t>
   </si>
   <si>
+    <t>pan</t>
+  </si>
+  <si>
     <t>recommend</t>
   </si>
   <si>
-    <t>pan</t>
+    <t>every</t>
+  </si>
+  <si>
+    <t>also</t>
   </si>
   <si>
     <t>makes</t>
   </si>
   <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>worth</t>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>clean</t>
   </si>
   <si>
     <t>make</t>
   </si>
   <si>
-    <t>clean</t>
-  </si>
-  <si>
     <t>coffee</t>
   </si>
   <si>
-    <t>quality</t>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>hot</t>
   </si>
   <si>
     <t>little</t>
   </si>
   <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>hot</t>
-  </si>
-  <si>
-    <t>job</t>
-  </si>
-  <si>
     <t>really</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>one</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
     <t>time</t>
   </si>
   <si>
@@ -260,6 +266,9 @@
   </si>
   <si>
     <t>use</t>
+  </si>
+  <si>
+    <t>product</t>
   </si>
   <si>
     <t>positive</t>
@@ -620,7 +629,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q73"/>
+  <dimension ref="A1:Q75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -628,10 +637,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -689,13 +698,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.4141414141414141</v>
+        <v>0.4263565891472868</v>
       </c>
       <c r="C3">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="D3">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -707,19 +716,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K3">
-        <v>0.946236559139785</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="M3">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -731,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -739,13 +748,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.3643410852713178</v>
+        <v>0.3838383838383838</v>
       </c>
       <c r="C4">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D4">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -757,19 +766,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K4">
-        <v>0.90625</v>
+        <v>0.9247311827956989</v>
       </c>
       <c r="L4">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="M4">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -781,21 +790,45 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:17">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>0.1567567567567568</v>
+      </c>
+      <c r="C5">
+        <v>29</v>
+      </c>
+      <c r="D5">
+        <v>29</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>156</v>
+      </c>
       <c r="J5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K5">
-        <v>0.8637770897832817</v>
+        <v>0.921875</v>
       </c>
       <c r="L5">
-        <v>558</v>
+        <v>118</v>
       </c>
       <c r="M5">
-        <v>558</v>
+        <v>118</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -807,21 +840,21 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>88</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="J6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K6">
-        <v>0.855072463768116</v>
+        <v>0.8622291021671826</v>
       </c>
       <c r="L6">
-        <v>59</v>
+        <v>557</v>
       </c>
       <c r="M6">
-        <v>59</v>
+        <v>557</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -833,21 +866,21 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>10</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="J7" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K7">
         <v>0.8260869565217391</v>
       </c>
       <c r="L7">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="M7">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -859,21 +892,21 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="J8" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K8">
-        <v>0.7727272727272727</v>
+        <v>0.8260869565217391</v>
       </c>
       <c r="L8">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M8">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -885,21 +918,21 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="J9" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K9">
-        <v>0.7555555555555555</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L9">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M9">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -911,21 +944,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K10">
-        <v>0.7402597402597403</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L10">
-        <v>171</v>
+        <v>35</v>
       </c>
       <c r="M10">
-        <v>171</v>
+        <v>35</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -937,21 +970,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>60</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K11">
-        <v>0.6915254237288135</v>
+        <v>0.7012987012987013</v>
       </c>
       <c r="L11">
-        <v>204</v>
+        <v>162</v>
       </c>
       <c r="M11">
-        <v>204</v>
+        <v>162</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -963,21 +996,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>91</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K12">
-        <v>0.6901408450704225</v>
+        <v>0.6949152542372882</v>
       </c>
       <c r="L12">
-        <v>49</v>
+        <v>205</v>
       </c>
       <c r="M12">
-        <v>49</v>
+        <v>205</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -989,21 +1022,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>22</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K13">
-        <v>0.6753246753246753</v>
+        <v>0.6883116883116883</v>
       </c>
       <c r="L13">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M13">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1015,12 +1048,12 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K14">
         <v>0.6712328767123288</v>
@@ -1046,16 +1079,16 @@
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K15">
-        <v>0.6666666666666666</v>
+        <v>0.6619718309859155</v>
       </c>
       <c r="L15">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="M15">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1067,21 +1100,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K16">
-        <v>0.6530612244897959</v>
+        <v>0.6458333333333334</v>
       </c>
       <c r="L16">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M16">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1098,16 +1131,16 @@
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K17">
-        <v>0.6461538461538462</v>
+        <v>0.6420545746388443</v>
       </c>
       <c r="L17">
-        <v>42</v>
+        <v>800</v>
       </c>
       <c r="M17">
-        <v>42</v>
+        <v>800</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1119,21 +1152,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>23</v>
+        <v>446</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K18">
-        <v>0.6420545746388443</v>
+        <v>0.6323529411764706</v>
       </c>
       <c r="L18">
-        <v>800</v>
+        <v>43</v>
       </c>
       <c r="M18">
-        <v>800</v>
+        <v>43</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1145,21 +1178,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>446</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K19">
-        <v>0.6285714285714286</v>
+        <v>0.625</v>
       </c>
       <c r="L19">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="M19">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1171,21 +1204,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>65</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K20">
-        <v>0.6285714285714286</v>
+        <v>0.5964912280701754</v>
       </c>
       <c r="L20">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="M20">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1197,21 +1230,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K21">
-        <v>0.6274509803921569</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L21">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M21">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1223,21 +1256,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K22">
-        <v>0.625</v>
+        <v>0.5873015873015873</v>
       </c>
       <c r="L22">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="M22">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1249,15 +1282,15 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K23">
-        <v>0.6176470588235294</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L23">
         <v>42</v>
@@ -1275,47 +1308,47 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K24">
+        <v>0.5789473684210527</v>
+      </c>
+      <c r="L24">
+        <v>44</v>
+      </c>
+      <c r="M24">
+        <v>44</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
         <v>32</v>
-      </c>
-      <c r="K24">
-        <v>0.609375</v>
-      </c>
-      <c r="L24">
-        <v>39</v>
-      </c>
-      <c r="M24">
-        <v>39</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>25</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K25">
-        <v>0.5714285714285714</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="L25">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="M25">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1327,21 +1360,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>27</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K26">
-        <v>0.562874251497006</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L26">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="M26">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1353,21 +1386,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K27">
-        <v>0.5526315789473685</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L27">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="M27">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1379,21 +1412,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K28">
-        <v>0.5384615384615384</v>
+        <v>0.5641025641025641</v>
       </c>
       <c r="L28">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M28">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1405,21 +1438,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K29">
-        <v>0.5384615384615384</v>
+        <v>0.53</v>
       </c>
       <c r="L29">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M29">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1431,15 +1464,15 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K30">
-        <v>0.5138888888888888</v>
+        <v>0.5285714285714286</v>
       </c>
       <c r="L30">
         <v>37</v>
@@ -1457,21 +1490,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K31">
-        <v>0.4838709677419355</v>
+        <v>0.5076923076923077</v>
       </c>
       <c r="L31">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M31">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1488,16 +1521,16 @@
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K32">
-        <v>0.4819277108433735</v>
+        <v>0.5060240963855421</v>
       </c>
       <c r="L32">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M32">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1509,21 +1542,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K33">
-        <v>0.4769230769230769</v>
+        <v>0.4910179640718563</v>
       </c>
       <c r="L33">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="M33">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1535,21 +1568,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>34</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K34">
-        <v>0.47</v>
+        <v>0.4754098360655737</v>
       </c>
       <c r="L34">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="M34">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1561,21 +1594,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>53</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K35">
-        <v>0.427710843373494</v>
+        <v>0.4511278195488722</v>
       </c>
       <c r="L35">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="M35">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1587,21 +1620,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>95</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K36">
-        <v>0.4210526315789473</v>
+        <v>0.4457831325301205</v>
       </c>
       <c r="L36">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="M36">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1613,21 +1646,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>77</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K37">
-        <v>0.4197530864197531</v>
+        <v>0.4320987654320987</v>
       </c>
       <c r="L37">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M37">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1639,21 +1672,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K38">
-        <v>0.3897058823529412</v>
+        <v>0.4078947368421053</v>
       </c>
       <c r="L38">
-        <v>159</v>
+        <v>31</v>
       </c>
       <c r="M38">
-        <v>159</v>
+        <v>31</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1665,21 +1698,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>249</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K39">
-        <v>0.3813229571984436</v>
+        <v>0.3946078431372549</v>
       </c>
       <c r="L39">
-        <v>98</v>
+        <v>161</v>
       </c>
       <c r="M39">
-        <v>98</v>
+        <v>161</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1691,21 +1724,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>159</v>
+        <v>247</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K40">
-        <v>0.381294964028777</v>
+        <v>0.3891050583657588</v>
       </c>
       <c r="L40">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="M40">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1717,21 +1750,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>86</v>
+        <v>157</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K41">
-        <v>0.363013698630137</v>
+        <v>0.3703703703703703</v>
       </c>
       <c r="L41">
-        <v>265</v>
+        <v>40</v>
       </c>
       <c r="M41">
-        <v>265</v>
+        <v>40</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1743,21 +1776,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>465</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K42">
-        <v>0.3603603603603603</v>
+        <v>0.363013698630137</v>
       </c>
       <c r="L42">
-        <v>40</v>
+        <v>265</v>
       </c>
       <c r="M42">
-        <v>40</v>
+        <v>265</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1769,21 +1802,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>71</v>
+        <v>465</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K43">
-        <v>0.3383458646616541</v>
+        <v>0.3603603603603603</v>
       </c>
       <c r="L43">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="M43">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1795,21 +1828,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>88</v>
+        <v>71</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K44">
-        <v>0.3168316831683168</v>
+        <v>0.3533834586466165</v>
       </c>
       <c r="L44">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="M44">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1821,21 +1854,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>69</v>
+        <v>86</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K45">
-        <v>0.287037037037037</v>
+        <v>0.3452380952380952</v>
       </c>
       <c r="L45">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M45">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1847,21 +1880,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>77</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K46">
-        <v>0.2822966507177033</v>
+        <v>0.3366336633663367</v>
       </c>
       <c r="L46">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="M46">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -1873,21 +1906,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>150</v>
+        <v>67</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K47">
-        <v>0.2781456953642384</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L47">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="M47">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -1899,21 +1932,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>109</v>
+        <v>74</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K48">
-        <v>0.2702702702702703</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="L48">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="M48">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -1925,21 +1958,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>81</v>
+        <v>143</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K49">
-        <v>0.2626480086114101</v>
+        <v>0.3093525179856115</v>
       </c>
       <c r="L49">
-        <v>244</v>
+        <v>43</v>
       </c>
       <c r="M49">
-        <v>244</v>
+        <v>43</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -1951,47 +1984,47 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>685</v>
+        <v>96</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K50">
-        <v>0.2589285714285715</v>
+        <v>0.2847682119205298</v>
       </c>
       <c r="L50">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="M50">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="N50">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O50">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <v>83</v>
+        <v>108</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K51">
-        <v>0.2416107382550336</v>
+        <v>0.2658772874058127</v>
       </c>
       <c r="L51">
-        <v>36</v>
+        <v>247</v>
       </c>
       <c r="M51">
-        <v>36</v>
+        <v>247</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2003,21 +2036,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>113</v>
+        <v>682</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K52">
-        <v>0.2291390728476821</v>
+        <v>0.261744966442953</v>
       </c>
       <c r="L52">
-        <v>173</v>
+        <v>39</v>
       </c>
       <c r="M52">
-        <v>173</v>
+        <v>39</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2029,125 +2062,125 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>582</v>
+        <v>110</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K53">
-        <v>0.2289002557544757</v>
+        <v>0.2589285714285715</v>
       </c>
       <c r="L53">
-        <v>179</v>
+        <v>29</v>
       </c>
       <c r="M53">
-        <v>179</v>
+        <v>30</v>
       </c>
       <c r="N53">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O53">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q53">
-        <v>603</v>
+        <v>83</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K54">
-        <v>0.2065217391304348</v>
+        <v>0.2478632478632479</v>
       </c>
       <c r="L54">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="M54">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="N54">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O54">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54">
-        <v>292</v>
+        <v>88</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K55">
-        <v>0.1949685534591195</v>
+        <v>0.2198675496688742</v>
       </c>
       <c r="L55">
-        <v>62</v>
+        <v>166</v>
       </c>
       <c r="M55">
-        <v>63</v>
+        <v>166</v>
       </c>
       <c r="N55">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O55">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55">
-        <v>256</v>
+        <v>589</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K56">
-        <v>0.1895910780669145</v>
+        <v>0.2186700767263427</v>
       </c>
       <c r="L56">
-        <v>51</v>
+        <v>171</v>
       </c>
       <c r="M56">
-        <v>53</v>
+        <v>171</v>
       </c>
       <c r="N56">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O56">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q56">
-        <v>218</v>
+        <v>611</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K57">
+        <v>0.2037617554858934</v>
+      </c>
+      <c r="L57">
         <v>65</v>
       </c>
-      <c r="K57">
-        <v>0.1890243902439024</v>
-      </c>
-      <c r="L57">
-        <v>31</v>
-      </c>
       <c r="M57">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2159,47 +2192,47 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>133</v>
+        <v>254</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K58">
-        <v>0.1822660098522167</v>
+        <v>0.2027027027027027</v>
       </c>
       <c r="L58">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="M58">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="N58">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O58">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q58">
-        <v>166</v>
+        <v>295</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K59">
-        <v>0.1807909604519774</v>
+        <v>0.201219512195122</v>
       </c>
       <c r="L59">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M59">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2211,21 +2244,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>145</v>
+        <v>131</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K60">
-        <v>0.1740740740740741</v>
+        <v>0.1773399014778325</v>
       </c>
       <c r="L60">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="M60">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2237,21 +2270,21 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>223</v>
+        <v>167</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K61">
-        <v>0.1644736842105263</v>
+        <v>0.1734317343173432</v>
       </c>
       <c r="L61">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="M61">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2263,21 +2296,21 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>381</v>
+        <v>224</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K62">
-        <v>0.1545454545454545</v>
+        <v>0.1646778042959427</v>
       </c>
       <c r="L62">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M62">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2289,21 +2322,21 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>372</v>
+        <v>350</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K63">
-        <v>0.1455847255369928</v>
+        <v>0.1644736842105263</v>
       </c>
       <c r="L63">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="M63">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2315,21 +2348,21 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>358</v>
+        <v>381</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K64">
-        <v>0.134020618556701</v>
+        <v>0.1518518518518518</v>
       </c>
       <c r="L64">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M64">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -2341,21 +2374,21 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>252</v>
+        <v>229</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K65">
-        <v>0.1313868613138686</v>
+        <v>0.15</v>
       </c>
       <c r="L65">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="M65">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -2367,21 +2400,21 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>357</v>
+        <v>374</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K66">
-        <v>0.1260504201680672</v>
+        <v>0.1411192214111922</v>
       </c>
       <c r="L66">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="M66">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -2393,21 +2426,21 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>208</v>
+        <v>353</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K67">
-        <v>0.1169354838709677</v>
+        <v>0.138655462184874</v>
       </c>
       <c r="L67">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M67">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -2419,15 +2452,15 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>219</v>
+        <v>205</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K68">
-        <v>0.09836065573770492</v>
+        <v>0.1237113402061856</v>
       </c>
       <c r="L68">
         <v>36</v>
@@ -2445,47 +2478,47 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>330</v>
+        <v>255</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K69">
-        <v>0.09260991580916744</v>
+        <v>0.09289617486338798</v>
       </c>
       <c r="L69">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="M69">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="N69">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O69">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q69">
-        <v>970</v>
+        <v>332</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K70">
-        <v>0.08920863309352518</v>
+        <v>0.08776978417266187</v>
       </c>
       <c r="L70">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M70">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N70">
         <v>0.95</v>
@@ -2497,85 +2530,137 @@
         <v>1</v>
       </c>
       <c r="Q70">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K71">
-        <v>0.07393715341959335</v>
+        <v>0.08776844070961717</v>
       </c>
       <c r="L71">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="M71">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="N71">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="O71">
-        <v>0.02000000000000002</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P71" t="b">
         <v>1</v>
       </c>
       <c r="Q71">
-        <v>501</v>
+        <v>977</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K72">
-        <v>0.0671785028790787</v>
+        <v>0.08118081180811808</v>
       </c>
       <c r="L72">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="M72">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="N72">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O72">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q72">
-        <v>486</v>
+        <v>498</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K73">
-        <v>0.05454545454545454</v>
+        <v>0.07129094412331406</v>
       </c>
       <c r="L73">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="M73">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="N73">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
       <c r="O73">
-        <v>0.03000000000000003</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P73" t="b">
         <v>1</v>
       </c>
       <c r="Q73">
-        <v>1092</v>
+        <v>482</v>
+      </c>
+    </row>
+    <row r="74" spans="10:17">
+      <c r="J74" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K74">
+        <v>0.06336805555555555</v>
+      </c>
+      <c r="L74">
+        <v>73</v>
+      </c>
+      <c r="M74">
+        <v>78</v>
+      </c>
+      <c r="N74">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O74">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P74" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q74">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="75" spans="10:17">
+      <c r="J75" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K75">
+        <v>0.03815789473684211</v>
+      </c>
+      <c r="L75">
+        <v>29</v>
+      </c>
+      <c r="M75">
+        <v>36</v>
+      </c>
+      <c r="N75">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="O75">
+        <v>0.1899999999999999</v>
+      </c>
+      <c r="P75" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q75">
+        <v>731</v>
       </c>
     </row>
   </sheetData>
